--- a/ConstantEvaluation_Tests/bin/Debug/TestFile.xlsx
+++ b/ConstantEvaluation_Tests/bin/Debug/TestFile.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mySheet" sheetId="1" r:id="R520393de15e8491b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mySheet" sheetId="1" r:id="R62d8d91c72e14ba8"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/ConstantEvaluation_Tests/bin/Debug/TestFile.xlsx
+++ b/ConstantEvaluation_Tests/bin/Debug/TestFile.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mySheet" sheetId="1" r:id="R62d8d91c72e14ba8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mySheet" sheetId="1" r:id="Rc512efee28c04385"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/ConstantEvaluation_Tests/bin/Debug/TestFile.xlsx
+++ b/ConstantEvaluation_Tests/bin/Debug/TestFile.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mySheet" sheetId="1" r:id="Rc512efee28c04385"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mySheet" sheetId="1" r:id="R682e5b8769de44a2"/>
   </x:sheets>
 </x:workbook>
 </file>
